--- a/GradeDistributionsDB/Spring2014/Output/Spring2014 MS.xlsx
+++ b/GradeDistributionsDB/Spring2014/Output/Spring2014 MS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="232">
   <si>
     <t>Course</t>
   </si>
@@ -76,13 +76,13 @@
     <t>MCCLANAHAN R</t>
   </si>
   <si>
-    <t>81.95%</t>
-  </si>
-  <si>
-    <t>17.29%</t>
-  </si>
-  <si>
-    <t>0.75%</t>
+    <t>82.42%</t>
+  </si>
+  <si>
+    <t>16.97%</t>
+  </si>
+  <si>
+    <t>0.61%</t>
   </si>
   <si>
     <t>AERS-304</t>
@@ -100,10 +100,10 @@
     <t>SISSON S</t>
   </si>
   <si>
-    <t>94.12%</t>
-  </si>
-  <si>
-    <t>5.88%</t>
+    <t>90.38%</t>
+  </si>
+  <si>
+    <t>9.62%</t>
   </si>
   <si>
     <t>MLSC-122</t>
@@ -112,19 +112,19 @@
     <t>FRENCH B</t>
   </si>
   <si>
-    <t>68.97%</t>
-  </si>
-  <si>
-    <t>24.14%</t>
-  </si>
-  <si>
-    <t>4.43%</t>
-  </si>
-  <si>
-    <t>1.48%</t>
-  </si>
-  <si>
-    <t>0.99%</t>
+    <t>69.96%</t>
+  </si>
+  <si>
+    <t>23.32%</t>
+  </si>
+  <si>
+    <t>4.48%</t>
+  </si>
+  <si>
+    <t>1.35%</t>
+  </si>
+  <si>
+    <t>0.90%</t>
   </si>
   <si>
     <t>MLSC-222</t>
@@ -133,13 +133,13 @@
     <t>JENKINS C</t>
   </si>
   <si>
-    <t>82.02%</t>
-  </si>
-  <si>
-    <t>10.11%</t>
-  </si>
-  <si>
-    <t>7.87%</t>
+    <t>75.00%</t>
+  </si>
+  <si>
+    <t>18.89%</t>
+  </si>
+  <si>
+    <t>6.11%</t>
   </si>
   <si>
     <t>MLSC-322</t>
@@ -169,61 +169,79 @@
     <t>SPEAKES G</t>
   </si>
   <si>
-    <t>65.48%</t>
-  </si>
-  <si>
-    <t>30.95%</t>
+    <t>70.25%</t>
+  </si>
+  <si>
+    <t>26.45%</t>
+  </si>
+  <si>
+    <t>3.31%</t>
+  </si>
+  <si>
+    <t>MLSC-485</t>
+  </si>
+  <si>
+    <t>IBARGUEN S</t>
+  </si>
+  <si>
+    <t>NVSC-205</t>
+  </si>
+  <si>
+    <t>HAYNIE D</t>
+  </si>
+  <si>
+    <t>41.86%</t>
+  </si>
+  <si>
+    <t>51.16%</t>
+  </si>
+  <si>
+    <t>5.81%</t>
+  </si>
+  <si>
+    <t>1.16%</t>
+  </si>
+  <si>
+    <t>MURTY J</t>
+  </si>
+  <si>
+    <t>72.73%</t>
+  </si>
+  <si>
+    <t>22.08%</t>
+  </si>
+  <si>
+    <t>5.19%</t>
+  </si>
+  <si>
+    <t>GARCIA O</t>
+  </si>
+  <si>
+    <t>58.93%</t>
+  </si>
+  <si>
+    <t>35.71%</t>
   </si>
   <si>
     <t>3.57%</t>
   </si>
   <si>
-    <t>MLSC-485</t>
-  </si>
-  <si>
-    <t>IBARGUEN S</t>
-  </si>
-  <si>
-    <t>NVSC-205</t>
-  </si>
-  <si>
-    <t>HAYNIE D</t>
-  </si>
-  <si>
-    <t>41.86%</t>
-  </si>
-  <si>
-    <t>51.16%</t>
-  </si>
-  <si>
-    <t>5.81%</t>
-  </si>
-  <si>
-    <t>1.16%</t>
-  </si>
-  <si>
-    <t>GARCIA O</t>
-  </si>
-  <si>
-    <t>58.93%</t>
-  </si>
-  <si>
-    <t>35.71%</t>
-  </si>
-  <si>
     <t>1.79%</t>
   </si>
   <si>
-    <t>MURTY J</t>
-  </si>
-  <si>
-    <t>72.73%</t>
-  </si>
-  <si>
-    <t>22.08%</t>
-  </si>
-  <si>
-    <t>5.19%</t>
+    <t>NVSC-301</t>
+  </si>
+  <si>
+    <t>SCHMIDT M</t>
+  </si>
+  <si>
+    <t>68.00%</t>
+  </si>
+  <si>
+    <t>30.00%</t>
+  </si>
+  <si>
+    <t>2.00%</t>
   </si>
   <si>
     <t>NVSC-303</t>
@@ -232,10 +250,25 @@
     <t>KRAUS J</t>
   </si>
   <si>
-    <t>68.00%</t>
-  </si>
-  <si>
-    <t>32.00%</t>
+    <t>67.35%</t>
+  </si>
+  <si>
+    <t>28.57%</t>
+  </si>
+  <si>
+    <t>4.08%</t>
+  </si>
+  <si>
+    <t>CASEY C</t>
+  </si>
+  <si>
+    <t>72.92%</t>
+  </si>
+  <si>
+    <t>25.00%</t>
+  </si>
+  <si>
+    <t>2.08%</t>
   </si>
   <si>
     <t>NVSC-401</t>
@@ -319,27 +352,42 @@
     <t>15.69%</t>
   </si>
   <si>
+    <t>IVEY C</t>
+  </si>
+  <si>
+    <t>87.74%</t>
+  </si>
+  <si>
+    <t>11.32%</t>
+  </si>
+  <si>
+    <t>0.94%</t>
+  </si>
+  <si>
+    <t>HOFFMAN J</t>
+  </si>
+  <si>
+    <t>96.77%</t>
+  </si>
+  <si>
+    <t>3.23%</t>
+  </si>
+  <si>
     <t>STARNES G</t>
   </si>
   <si>
-    <t>68.75%</t>
-  </si>
-  <si>
-    <t>28.13%</t>
-  </si>
-  <si>
-    <t>3.13%</t>
+    <t>74.19%</t>
+  </si>
+  <si>
+    <t>24.19%</t>
+  </si>
+  <si>
+    <t>1.61%</t>
   </si>
   <si>
     <t>BYRNE W</t>
   </si>
   <si>
-    <t>87.10%</t>
-  </si>
-  <si>
-    <t>12.90%</t>
-  </si>
-  <si>
     <t>PARKS L</t>
   </si>
   <si>
@@ -373,13 +421,13 @@
     <t>NORRIS D</t>
   </si>
   <si>
-    <t>86.89%</t>
-  </si>
-  <si>
-    <t>11.48%</t>
-  </si>
-  <si>
-    <t>1.64%</t>
+    <t>88.00%</t>
+  </si>
+  <si>
+    <t>11.00%</t>
+  </si>
+  <si>
+    <t>1.00%</t>
   </si>
   <si>
     <t>SOMS-280</t>
@@ -397,6 +445,18 @@
     <t>1.59%</t>
   </si>
   <si>
+    <t>FELTS T</t>
+  </si>
+  <si>
+    <t>80.77%</t>
+  </si>
+  <si>
+    <t>18.27%</t>
+  </si>
+  <si>
+    <t>0.96%</t>
+  </si>
+  <si>
     <t>BROWN T</t>
   </si>
   <si>
@@ -412,22 +472,13 @@
     <t>0.85%</t>
   </si>
   <si>
-    <t>FELTS T</t>
-  </si>
-  <si>
-    <t>79.55%</t>
-  </si>
-  <si>
-    <t>19.32%</t>
-  </si>
-  <si>
     <t>GARDNER J</t>
   </si>
   <si>
-    <t>79.31%</t>
-  </si>
-  <si>
-    <t>20.69%</t>
+    <t>84.09%</t>
+  </si>
+  <si>
+    <t>15.91%</t>
   </si>
   <si>
     <t>SOMS-381</t>
@@ -490,9 +541,6 @@
     <t>LAPORTE C</t>
   </si>
   <si>
-    <t>20.00%</t>
-  </si>
-  <si>
     <t>50.00%</t>
   </si>
   <si>
@@ -547,6 +595,15 @@
     <t>1.82%</t>
   </si>
   <si>
+    <t>PRESTON T</t>
+  </si>
+  <si>
+    <t>96.15%</t>
+  </si>
+  <si>
+    <t>3.85%</t>
+  </si>
+  <si>
     <t>SOMS-482</t>
   </si>
   <si>
@@ -568,31 +625,31 @@
     <t>ONO J</t>
   </si>
   <si>
-    <t>39.02%</t>
-  </si>
-  <si>
-    <t>34.15%</t>
-  </si>
-  <si>
-    <t>19.51%</t>
-  </si>
-  <si>
-    <t>4.88%</t>
-  </si>
-  <si>
-    <t>2.44%</t>
+    <t>42.03%</t>
+  </si>
+  <si>
+    <t>36.23%</t>
+  </si>
+  <si>
+    <t>17.39%</t>
+  </si>
+  <si>
+    <t>2.90%</t>
+  </si>
+  <si>
+    <t>1.45%</t>
   </si>
   <si>
     <t>STRUMINGER R</t>
   </si>
   <si>
-    <t>25.00%</t>
-  </si>
-  <si>
     <t>65.00%</t>
   </si>
   <si>
-    <t>88.00%</t>
+    <t>ALTMAN R</t>
+  </si>
+  <si>
+    <t>37.50%</t>
   </si>
   <si>
     <t>8.00%</t>
@@ -622,12 +679,6 @@
     <t>5.00%</t>
   </si>
   <si>
-    <t>ALTMAN R</t>
-  </si>
-  <si>
-    <t>37.50%</t>
-  </si>
-  <si>
     <t>MOONEY K</t>
   </si>
   <si>
@@ -646,7 +697,10 @@
     <t>ARCAK C</t>
   </si>
   <si>
-    <t>23.81%</t>
+    <t>54.76%</t>
+  </si>
+  <si>
+    <t>2.38%</t>
   </si>
   <si>
     <t>SOMS-485</t>
@@ -992,7 +1046,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1087,7 +1141,7 @@
         <v>19</v>
       </c>
       <c r="C7" t="n">
-        <v>3.8028</v>
+        <v>3.8097</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -1143,7 +1197,7 @@
         <v>27</v>
       </c>
       <c r="C13" t="n">
-        <v>3.941</v>
+        <v>3.9</v>
       </c>
       <c r="D13" t="s">
         <v>28</v>
@@ -1171,7 +1225,7 @@
         <v>31</v>
       </c>
       <c r="C16" t="n">
-        <v>3.59</v>
+        <v>3.6078</v>
       </c>
       <c r="D16" t="s">
         <v>32</v>
@@ -1199,7 +1253,7 @@
         <v>38</v>
       </c>
       <c r="C19" t="n">
-        <v>3.7633</v>
+        <v>3.692</v>
       </c>
       <c r="D19" t="s">
         <v>39</v>
@@ -1255,7 +1309,7 @@
         <v>50</v>
       </c>
       <c r="C25" t="n">
-        <v>3.619</v>
+        <v>3.674</v>
       </c>
       <c r="D25" t="s">
         <v>51</v>
@@ -1334,7 +1388,7 @@
         <v>62</v>
       </c>
       <c r="C32" t="n">
-        <v>3.505</v>
+        <v>3.6905</v>
       </c>
       <c r="D32" t="s">
         <v>63</v>
@@ -1343,13 +1397,13 @@
         <v>64</v>
       </c>
       <c r="F32" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G32" t="s">
         <v>13</v>
       </c>
       <c r="H32" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1357,7 +1411,7 @@
         <v>66</v>
       </c>
       <c r="C33" t="n">
-        <v>3.6905</v>
+        <v>3.505</v>
       </c>
       <c r="D33" t="s">
         <v>67</v>
@@ -1372,29 +1426,29 @@
         <v>13</v>
       </c>
       <c r="H33" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="B36" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C36" t="n">
-        <v>3.68</v>
+        <v>3.6615</v>
       </c>
       <c r="D36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E36" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="G36" t="s">
         <v>13</v>
@@ -1405,103 +1459,103 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="B39" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C39" t="n">
+        <v>3.6315</v>
+      </c>
+      <c r="D39" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" t="s">
+        <v>79</v>
+      </c>
+      <c r="F39" t="s">
+        <v>80</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3.6985</v>
+      </c>
+      <c r="D40" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" t="s">
+        <v>84</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="B43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" t="n">
         <v>3.7635</v>
       </c>
-      <c r="D39" t="s">
-        <v>76</v>
-      </c>
-      <c r="E39" t="s">
-        <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="B42" t="s">
-        <v>79</v>
-      </c>
-      <c r="C42" t="n">
-        <v>3.5085</v>
-      </c>
-      <c r="D42" t="s">
-        <v>80</v>
-      </c>
-      <c r="E42" t="s">
-        <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
-      </c>
-      <c r="G42" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="s">
-        <v>83</v>
+      <c r="D43" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="B45" t="s">
-        <v>71</v>
-      </c>
-      <c r="C45" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D45" t="s">
-        <v>84</v>
-      </c>
-      <c r="E45" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" t="s">
-        <v>13</v>
-      </c>
-      <c r="H45" t="s">
-        <v>85</v>
+      <c r="A45" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="B46" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C46" t="n">
-        <v>3.905</v>
+        <v>3.5085</v>
       </c>
       <c r="D46" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E46" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="G46" t="s">
         <v>13</v>
@@ -1512,21 +1566,21 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="B49" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C49" t="n">
-        <v>3.454</v>
+        <v>3.6</v>
       </c>
       <c r="D49" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="E49" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="F49" t="s">
         <v>13</v>
@@ -1535,49 +1589,49 @@
         <v>13</v>
       </c>
       <c r="H49" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="B50" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C50" t="n">
-        <v>3.282</v>
+        <v>3.905</v>
       </c>
       <c r="D50" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E50" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="F50" t="s">
         <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="H50" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="B53" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C53" t="n">
-        <v>3.8455</v>
+        <v>3.454</v>
       </c>
       <c r="D53" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="E53" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F53" t="s">
         <v>13</v>
@@ -1586,116 +1640,75 @@
         <v>13</v>
       </c>
       <c r="H53" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="B54" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C54" t="n">
-        <v>3.656</v>
+        <v>3.282</v>
       </c>
       <c r="D54" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E54" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="F54" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="G54" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="H54" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="B55" t="s">
-        <v>105</v>
-      </c>
-      <c r="C55" t="n">
-        <v>3.871</v>
-      </c>
-      <c r="D55" t="s">
-        <v>106</v>
-      </c>
-      <c r="E55" t="s">
         <v>107</v>
       </c>
-      <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" t="s">
-        <v>13</v>
-      </c>
-      <c r="H55" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="B56" t="s">
+      <c r="A56" t="s">
         <v>108</v>
-      </c>
-      <c r="C56" t="n">
-        <v>3.9793</v>
-      </c>
-      <c r="D56" t="s">
-        <v>109</v>
-      </c>
-      <c r="E56" t="s">
-        <v>110</v>
-      </c>
-      <c r="F56" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" t="s">
-        <v>13</v>
-      </c>
-      <c r="H56" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="B57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57" t="n">
+        <v>3.8455</v>
+      </c>
+      <c r="D57" t="s">
+        <v>110</v>
+      </c>
+      <c r="E57" t="s">
         <v>111</v>
       </c>
-      <c r="C57" t="n">
-        <v>3.249</v>
-      </c>
-      <c r="D57" t="s">
-        <v>112</v>
-      </c>
-      <c r="E57" t="s">
-        <v>113</v>
-      </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="G57" t="s">
         <v>13</v>
       </c>
       <c r="H57" t="s">
-        <v>115</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="B58" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3.879</v>
       </c>
       <c r="D58" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="E58" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="F58" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="G58" t="s">
         <v>13</v>
@@ -1706,16 +1719,16 @@
     </row>
     <row r="59" spans="1:8">
       <c r="B59" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" t="n">
+        <v>3.968</v>
+      </c>
+      <c r="D59" t="s">
         <v>117</v>
       </c>
-      <c r="C59" t="n">
-        <v>4</v>
-      </c>
-      <c r="D59" t="s">
-        <v>25</v>
-      </c>
       <c r="E59" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="F59" t="s">
         <v>13</v>
@@ -1729,19 +1742,19 @@
     </row>
     <row r="60" spans="1:8">
       <c r="B60" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C60" t="n">
-        <v>3.852</v>
+        <v>3.728</v>
       </c>
       <c r="D60" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E60" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F60" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G60" t="s">
         <v>13</v>
@@ -1750,52 +1763,93 @@
         <v>13</v>
       </c>
     </row>
+    <row r="61" spans="1:8">
+      <c r="B61" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" t="n">
+        <v>3.9045</v>
+      </c>
+      <c r="D61" t="s">
+        <v>98</v>
+      </c>
+      <c r="E61" t="s">
+        <v>99</v>
+      </c>
+      <c r="F61" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" t="s">
+        <v>13</v>
+      </c>
+      <c r="H61" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="62" spans="1:8">
-      <c r="A62" t="s">
-        <v>122</v>
+      <c r="B62" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" t="n">
+        <v>3.9793</v>
+      </c>
+      <c r="D62" t="s">
+        <v>125</v>
+      </c>
+      <c r="E62" t="s">
+        <v>126</v>
+      </c>
+      <c r="F62" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" t="s">
+        <v>13</v>
+      </c>
+      <c r="H62" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="B63" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C63" t="n">
-        <v>3.5525</v>
+        <v>3.249</v>
       </c>
       <c r="D63" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E63" t="s">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="F63" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G63" t="s">
         <v>13</v>
       </c>
       <c r="H63" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="B64" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C64" t="n">
-        <v>3.5857</v>
+        <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="E64" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="F64" t="s">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="G64" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="H64" t="s">
         <v>13</v>
@@ -1803,19 +1857,19 @@
     </row>
     <row r="65" spans="1:8">
       <c r="B65" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C65" t="n">
-        <v>3.7523</v>
+        <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="E65" t="s">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G65" t="s">
         <v>13</v>
@@ -1826,19 +1880,19 @@
     </row>
     <row r="66" spans="1:8">
       <c r="B66" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" t="n">
+        <v>3.867</v>
+      </c>
+      <c r="D66" t="s">
         <v>135</v>
       </c>
-      <c r="C66" t="n">
-        <v>3.793</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>136</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>137</v>
-      </c>
-      <c r="F66" t="s">
-        <v>13</v>
       </c>
       <c r="G66" t="s">
         <v>13</v>
@@ -1857,22 +1911,22 @@
         <v>139</v>
       </c>
       <c r="C69" t="n">
-        <v>3.5475</v>
+        <v>3.5525</v>
       </c>
       <c r="D69" t="s">
         <v>140</v>
       </c>
       <c r="E69" t="s">
+        <v>45</v>
+      </c>
+      <c r="F69" t="s">
         <v>141</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
+        <v>13</v>
+      </c>
+      <c r="H69" t="s">
         <v>142</v>
-      </c>
-      <c r="G69" t="s">
-        <v>114</v>
-      </c>
-      <c r="H69" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -1880,7 +1934,7 @@
         <v>143</v>
       </c>
       <c r="C70" t="n">
-        <v>3.2</v>
+        <v>3.783</v>
       </c>
       <c r="D70" t="s">
         <v>144</v>
@@ -1903,7 +1957,7 @@
         <v>147</v>
       </c>
       <c r="C71" t="n">
-        <v>3.261</v>
+        <v>3.5857</v>
       </c>
       <c r="D71" t="s">
         <v>148</v>
@@ -1918,7 +1972,7 @@
         <v>151</v>
       </c>
       <c r="H71" t="s">
-        <v>150</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -1926,16 +1980,16 @@
         <v>152</v>
       </c>
       <c r="C72" t="n">
-        <v>3.857</v>
+        <v>3.863</v>
       </c>
       <c r="D72" t="s">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="E72" t="s">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c r="F72" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="G72" t="s">
         <v>13</v>
@@ -1944,73 +1998,32 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
-      <c r="B73" t="s">
-        <v>153</v>
-      </c>
-      <c r="C73" t="n">
-        <v>3.286</v>
-      </c>
-      <c r="D73" t="s">
-        <v>154</v>
-      </c>
-      <c r="E73" t="s">
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
         <v>155</v>
-      </c>
-      <c r="F73" t="s">
-        <v>13</v>
-      </c>
-      <c r="G73" t="s">
-        <v>95</v>
-      </c>
-      <c r="H73" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="B74" t="s">
-        <v>127</v>
-      </c>
-      <c r="C74" t="n">
-        <v>3.867</v>
-      </c>
-      <c r="D74" t="s">
-        <v>156</v>
-      </c>
-      <c r="E74" t="s">
-        <v>145</v>
-      </c>
-      <c r="F74" t="s">
-        <v>13</v>
-      </c>
-      <c r="G74" t="s">
-        <v>13</v>
-      </c>
-      <c r="H74" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="B75" t="s">
+        <v>156</v>
+      </c>
+      <c r="C75" t="n">
+        <v>3.5475</v>
+      </c>
+      <c r="D75" t="s">
         <v>157</v>
       </c>
-      <c r="C75" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>158</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>159</v>
       </c>
-      <c r="F75" t="s">
-        <v>85</v>
-      </c>
       <c r="G75" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="H75" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2018,7 +2031,7 @@
         <v>160</v>
       </c>
       <c r="C76" t="n">
-        <v>3.6285</v>
+        <v>3.2</v>
       </c>
       <c r="D76" t="s">
         <v>161</v>
@@ -2030,7 +2043,7 @@
         <v>163</v>
       </c>
       <c r="G76" t="s">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="H76" t="s">
         <v>13</v>
@@ -2038,22 +2051,22 @@
     </row>
     <row r="77" spans="1:8">
       <c r="B77" t="s">
+        <v>164</v>
+      </c>
+      <c r="C77" t="n">
+        <v>3.261</v>
+      </c>
+      <c r="D77" t="s">
         <v>165</v>
       </c>
-      <c r="C77" t="n">
-        <v>3.333</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>166</v>
       </c>
-      <c r="E77" t="s">
-        <v>145</v>
-      </c>
       <c r="F77" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="G77" t="s">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="H77" t="s">
         <v>167</v>
@@ -2061,22 +2074,22 @@
     </row>
     <row r="78" spans="1:8">
       <c r="B78" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C78" t="n">
-        <v>3.452</v>
+        <v>3.857</v>
       </c>
       <c r="D78" t="s">
-        <v>169</v>
+        <v>98</v>
       </c>
       <c r="E78" t="s">
-        <v>170</v>
+        <v>106</v>
       </c>
       <c r="F78" t="s">
-        <v>171</v>
+        <v>106</v>
       </c>
       <c r="G78" t="s">
-        <v>172</v>
+        <v>13</v>
       </c>
       <c r="H78" t="s">
         <v>13</v>
@@ -2084,96 +2097,137 @@
     </row>
     <row r="79" spans="1:8">
       <c r="B79" t="s">
+        <v>170</v>
+      </c>
+      <c r="C79" t="n">
+        <v>3.286</v>
+      </c>
+      <c r="D79" t="s">
+        <v>171</v>
+      </c>
+      <c r="E79" t="s">
+        <v>172</v>
+      </c>
+      <c r="F79" t="s">
+        <v>13</v>
+      </c>
+      <c r="G79" t="s">
+        <v>106</v>
+      </c>
+      <c r="H79" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="B80" t="s">
+        <v>147</v>
+      </c>
+      <c r="C80" t="n">
+        <v>3.867</v>
+      </c>
+      <c r="D80" t="s">
         <v>173</v>
       </c>
-      <c r="C79" t="n">
-        <v>3.8435</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="E80" t="s">
+        <v>162</v>
+      </c>
+      <c r="F80" t="s">
+        <v>13</v>
+      </c>
+      <c r="G80" t="s">
+        <v>13</v>
+      </c>
+      <c r="H80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="B81" t="s">
         <v>174</v>
       </c>
-      <c r="E79" t="s">
+      <c r="C81" t="n">
+        <v>3.1715</v>
+      </c>
+      <c r="D81" t="s">
         <v>175</v>
       </c>
-      <c r="F79" t="s">
-        <v>176</v>
-      </c>
-      <c r="G79" t="s">
-        <v>13</v>
-      </c>
-      <c r="H79" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" t="s">
-        <v>177</v>
+      <c r="E81" t="s">
+        <v>163</v>
+      </c>
+      <c r="F81" t="s">
+        <v>46</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="B82" t="s">
+        <v>176</v>
+      </c>
+      <c r="C82" t="n">
+        <v>3.6285</v>
+      </c>
+      <c r="D82" t="s">
+        <v>177</v>
+      </c>
+      <c r="E82" t="s">
         <v>178</v>
       </c>
-      <c r="C82" t="n">
-        <v>3.3915</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="F82" t="s">
         <v>179</v>
       </c>
-      <c r="E82" t="s">
+      <c r="G82" t="s">
         <v>180</v>
       </c>
-      <c r="F82" t="s">
-        <v>181</v>
-      </c>
-      <c r="G82" t="s">
-        <v>13</v>
-      </c>
       <c r="H82" t="s">
-        <v>182</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="B83" t="s">
+        <v>181</v>
+      </c>
+      <c r="C83" t="n">
+        <v>3.333</v>
+      </c>
+      <c r="D83" t="s">
+        <v>182</v>
+      </c>
+      <c r="E83" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" t="s">
+        <v>162</v>
+      </c>
+      <c r="G83" t="s">
+        <v>13</v>
+      </c>
+      <c r="H83" t="s">
         <v>183</v>
-      </c>
-      <c r="C83" t="n">
-        <v>3.0475</v>
-      </c>
-      <c r="D83" t="s">
-        <v>184</v>
-      </c>
-      <c r="E83" t="s">
-        <v>185</v>
-      </c>
-      <c r="F83" t="s">
-        <v>186</v>
-      </c>
-      <c r="G83" t="s">
-        <v>187</v>
-      </c>
-      <c r="H83" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="B84" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C84" t="n">
-        <v>3.15</v>
+        <v>3.452</v>
       </c>
       <c r="D84" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E84" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F84" t="s">
-        <v>85</v>
+        <v>187</v>
       </c>
       <c r="G84" t="s">
-        <v>13</v>
+        <v>188</v>
       </c>
       <c r="H84" t="s">
         <v>13</v>
@@ -2181,168 +2235,288 @@
     </row>
     <row r="85" spans="1:8">
       <c r="B85" t="s">
-        <v>127</v>
+        <v>189</v>
       </c>
       <c r="C85" t="n">
-        <v>3.84</v>
+        <v>3.8435</v>
       </c>
       <c r="D85" t="s">
+        <v>190</v>
+      </c>
+      <c r="E85" t="s">
+        <v>191</v>
+      </c>
+      <c r="F85" t="s">
         <v>192</v>
       </c>
-      <c r="E85" t="s">
-        <v>193</v>
-      </c>
-      <c r="F85" t="s">
-        <v>194</v>
-      </c>
       <c r="G85" t="s">
         <v>13</v>
       </c>
       <c r="H85" t="s">
-        <v>13</v>
+        <v>192</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="B86" t="s">
+        <v>193</v>
+      </c>
+      <c r="C86" t="n">
+        <v>3.923</v>
+      </c>
+      <c r="D86" t="s">
+        <v>194</v>
+      </c>
+      <c r="E86" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" t="s">
         <v>195</v>
       </c>
-      <c r="C86" t="n">
-        <v>2.773</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="G86" t="s">
+        <v>13</v>
+      </c>
+      <c r="H86" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" t="s">
         <v>196</v>
-      </c>
-      <c r="E86" t="s">
-        <v>197</v>
-      </c>
-      <c r="F86" t="s">
-        <v>197</v>
-      </c>
-      <c r="G86" t="s">
-        <v>198</v>
-      </c>
-      <c r="H86" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="B87" t="s">
-        <v>199</v>
-      </c>
-      <c r="C87" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="D87" t="s">
-        <v>200</v>
-      </c>
-      <c r="E87" t="s">
-        <v>201</v>
-      </c>
-      <c r="F87" t="s">
-        <v>85</v>
-      </c>
-      <c r="G87" t="s">
-        <v>13</v>
-      </c>
-      <c r="H87" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="B88" t="s">
-        <v>202</v>
-      </c>
-      <c r="C88" t="n">
-        <v>2.875</v>
-      </c>
-      <c r="D88" t="s">
-        <v>190</v>
-      </c>
-      <c r="E88" t="s">
-        <v>203</v>
-      </c>
-      <c r="F88" t="s">
-        <v>203</v>
-      </c>
-      <c r="G88" t="s">
-        <v>13</v>
-      </c>
-      <c r="H88" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="B89" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C89" t="n">
-        <v>3.125</v>
+        <v>3.3915</v>
       </c>
       <c r="D89" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E89" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F89" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="H89" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="B90" t="s">
+        <v>202</v>
+      </c>
+      <c r="C90" t="n">
+        <v>3.1387</v>
+      </c>
+      <c r="D90" t="s">
+        <v>203</v>
+      </c>
+      <c r="E90" t="s">
+        <v>204</v>
+      </c>
+      <c r="F90" t="s">
+        <v>205</v>
+      </c>
+      <c r="G90" t="s">
+        <v>206</v>
+      </c>
+      <c r="H90" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="B91" t="s">
+        <v>208</v>
+      </c>
+      <c r="C91" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="D91" t="s">
+        <v>83</v>
+      </c>
+      <c r="E91" t="s">
         <v>209</v>
       </c>
-      <c r="C90" t="n">
-        <v>3.143</v>
-      </c>
-      <c r="D90" t="s">
-        <v>155</v>
-      </c>
-      <c r="E90" t="s">
-        <v>155</v>
-      </c>
-      <c r="F90" t="s">
+      <c r="F91" t="s">
+        <v>96</v>
+      </c>
+      <c r="G91" t="s">
+        <v>13</v>
+      </c>
+      <c r="H91" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="B92" t="s">
         <v>210</v>
       </c>
-      <c r="G90" t="s">
-        <v>13</v>
-      </c>
-      <c r="H90" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" t="s">
+      <c r="C92" t="n">
+        <v>2.875</v>
+      </c>
+      <c r="D92" t="s">
+        <v>83</v>
+      </c>
+      <c r="E92" t="s">
         <v>211</v>
+      </c>
+      <c r="F92" t="s">
+        <v>211</v>
+      </c>
+      <c r="G92" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="B93" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="C93" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="D93" t="s">
+        <v>135</v>
+      </c>
+      <c r="E93" t="s">
+        <v>212</v>
+      </c>
+      <c r="F93" t="s">
+        <v>213</v>
+      </c>
+      <c r="G93" t="s">
+        <v>13</v>
+      </c>
+      <c r="H93" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="B94" t="s">
+        <v>214</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2.773</v>
+      </c>
+      <c r="D94" t="s">
+        <v>215</v>
+      </c>
+      <c r="E94" t="s">
+        <v>216</v>
+      </c>
+      <c r="F94" t="s">
+        <v>216</v>
+      </c>
+      <c r="G94" t="s">
+        <v>217</v>
+      </c>
+      <c r="H94" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="B95" t="s">
+        <v>218</v>
+      </c>
+      <c r="C95" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="D95" t="s">
+        <v>219</v>
+      </c>
+      <c r="E95" t="s">
+        <v>220</v>
+      </c>
+      <c r="F95" t="s">
+        <v>96</v>
+      </c>
+      <c r="G95" t="s">
+        <v>13</v>
+      </c>
+      <c r="H95" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="B96" t="s">
+        <v>221</v>
+      </c>
+      <c r="C96" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="D96" t="s">
+        <v>222</v>
+      </c>
+      <c r="E96" t="s">
+        <v>223</v>
+      </c>
+      <c r="F96" t="s">
+        <v>224</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="B97" t="s">
+        <v>226</v>
+      </c>
+      <c r="C97" t="n">
+        <v>3.0955</v>
+      </c>
+      <c r="D97" t="s">
+        <v>79</v>
+      </c>
+      <c r="E97" t="s">
+        <v>227</v>
+      </c>
+      <c r="F97" t="s">
+        <v>107</v>
+      </c>
+      <c r="G97" t="s">
+        <v>228</v>
+      </c>
+      <c r="H97" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="B100" t="s">
+        <v>101</v>
+      </c>
+      <c r="C100" t="n">
         <v>3.911</v>
       </c>
-      <c r="D93" t="s">
-        <v>212</v>
-      </c>
-      <c r="E93" t="s">
-        <v>13</v>
-      </c>
-      <c r="F93" t="s">
-        <v>13</v>
-      </c>
-      <c r="G93" t="s">
-        <v>13</v>
-      </c>
-      <c r="H93" t="s">
-        <v>213</v>
+      <c r="D100" t="s">
+        <v>230</v>
+      </c>
+      <c r="E100" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" t="s">
+        <v>13</v>
+      </c>
+      <c r="G100" t="s">
+        <v>13</v>
+      </c>
+      <c r="H100" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/GradeDistributionsDB/Spring2014/Output/Spring2014 MS.xlsx
+++ b/GradeDistributionsDB/Spring2014/Output/Spring2014 MS.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="240">
   <si>
     <t>Course</t>
   </si>
@@ -40,6 +40,9 @@
     <t>% of F's</t>
   </si>
   <si>
+    <t>% of Q Drop's</t>
+  </si>
+  <si>
     <t>AERS-102</t>
   </si>
   <si>
@@ -70,6 +73,9 @@
     <t>17.95%</t>
   </si>
   <si>
+    <t>0.85%</t>
+  </si>
+  <si>
     <t>AERS-202</t>
   </si>
   <si>
@@ -127,6 +133,9 @@
     <t>0.90%</t>
   </si>
   <si>
+    <t>0.89%</t>
+  </si>
+  <si>
     <t>MLSC-222</t>
   </si>
   <si>
@@ -142,6 +151,9 @@
     <t>6.11%</t>
   </si>
   <si>
+    <t>0.55%</t>
+  </si>
+  <si>
     <t>MLSC-322</t>
   </si>
   <si>
@@ -178,6 +190,9 @@
     <t>3.31%</t>
   </si>
   <si>
+    <t>0.82%</t>
+  </si>
+  <si>
     <t>MLSC-485</t>
   </si>
   <si>
@@ -202,6 +217,9 @@
     <t>1.16%</t>
   </si>
   <si>
+    <t>1.15%</t>
+  </si>
+  <si>
     <t>MURTY J</t>
   </si>
   <si>
@@ -340,6 +358,9 @@
     <t>14.29%</t>
   </si>
   <si>
+    <t>4.55%</t>
+  </si>
+  <si>
     <t>SOMS-180</t>
   </si>
   <si>
@@ -445,6 +466,9 @@
     <t>1.59%</t>
   </si>
   <si>
+    <t>0.79%</t>
+  </si>
+  <si>
     <t>FELTS T</t>
   </si>
   <si>
@@ -469,9 +493,6 @@
     <t>5.08%</t>
   </si>
   <si>
-    <t>0.85%</t>
-  </si>
-  <si>
     <t>GARDNER J</t>
   </si>
   <si>
@@ -481,6 +502,9 @@
     <t>15.91%</t>
   </si>
   <si>
+    <t>2.22%</t>
+  </si>
+  <si>
     <t>SOMS-381</t>
   </si>
   <si>
@@ -508,6 +532,9 @@
     <t>33.33%</t>
   </si>
   <si>
+    <t>6.25%</t>
+  </si>
+  <si>
     <t>STURTEVANT K</t>
   </si>
   <si>
@@ -665,9 +692,6 @@
   </si>
   <si>
     <t>36.36%</t>
-  </si>
-  <si>
-    <t>4.55%</t>
   </si>
   <si>
     <t>KALLINA S</t>
@@ -747,12 +771,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -1046,15 +1069,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1079,1444 +1102,1621 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>3.7773</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="n">
         <v>3.8112</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="B7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" t="n">
         <v>3.8097</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="B13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C13" t="n">
         <v>3.9</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="B16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" t="n">
         <v>3.6078</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="B19" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C19" t="n">
         <v>3.692</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="B22" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C22" t="n">
         <v>3.4425</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F22" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="B25" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C25" t="n">
         <v>3.674</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F25" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="B28" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C28" t="n">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="B31" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C31" t="n">
         <v>3.307</v>
       </c>
       <c r="D31" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="I31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="B32" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C32" t="n">
         <v>3.6905</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E32" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F32" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="B33" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C33" t="n">
         <v>3.505</v>
       </c>
       <c r="D33" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E33" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F33" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="B36" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C36" t="n">
         <v>3.6615</v>
       </c>
       <c r="D36" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E36" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F36" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="B39" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C39" t="n">
         <v>3.6315</v>
       </c>
       <c r="D39" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E39" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F39" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="B40" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C40" t="n">
         <v>3.6985</v>
       </c>
       <c r="D40" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E40" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F40" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="B43" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C43" t="n">
         <v>3.7635</v>
       </c>
       <c r="D43" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E43" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="B46" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C46" t="n">
         <v>3.5085</v>
       </c>
       <c r="D46" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E46" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F46" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="B49" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C49" t="n">
         <v>3.6</v>
       </c>
       <c r="D49" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="B50" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C50" t="n">
         <v>3.905</v>
       </c>
       <c r="D50" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="B53" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C53" t="n">
         <v>3.454</v>
       </c>
       <c r="D53" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E53" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>109</v>
+      </c>
+      <c r="I53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="B54" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C54" t="n">
         <v>3.282</v>
       </c>
       <c r="D54" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G54" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="H54" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I54" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="B57" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C57" t="n">
         <v>3.8455</v>
       </c>
       <c r="D57" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="B58" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C58" t="n">
         <v>3.879</v>
       </c>
       <c r="D58" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E58" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F58" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="B59" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C59" t="n">
         <v>3.968</v>
       </c>
       <c r="D59" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E59" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="B60" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C60" t="n">
         <v>3.728</v>
       </c>
       <c r="D60" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E60" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F60" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="G60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="B61" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C61" t="n">
         <v>3.9045</v>
       </c>
       <c r="D61" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E61" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I61" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="B62" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C62" t="n">
         <v>3.9793</v>
       </c>
       <c r="D62" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E62" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I62" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="B63" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C63" t="n">
         <v>3.249</v>
       </c>
       <c r="D63" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E63" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F63" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="G63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>138</v>
+      </c>
+      <c r="I63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="B64" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C64" t="n">
         <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="B65" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C65" t="n">
         <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I65" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="B66" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C66" t="n">
         <v>3.867</v>
       </c>
       <c r="D66" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E66" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F66" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="G66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="B69" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C69" t="n">
         <v>3.5525</v>
       </c>
       <c r="D69" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E69" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F69" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>149</v>
+      </c>
+      <c r="I69" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="B70" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C70" t="n">
         <v>3.783</v>
       </c>
       <c r="D70" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E70" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="F70" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="G70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="B71" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C71" t="n">
         <v>3.5857</v>
       </c>
       <c r="D71" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E71" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="F71" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="G71" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="H71" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="B72" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C72" t="n">
         <v>3.863</v>
       </c>
       <c r="D72" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E72" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="F72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I72" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="B75" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C75" t="n">
         <v>3.5475</v>
       </c>
       <c r="D75" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E75" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="F75" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="G75" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="H75" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>137</v>
+      </c>
+      <c r="I75" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="B76" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C76" t="n">
         <v>3.2</v>
       </c>
       <c r="D76" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E76" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="F76" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="G76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I76" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="B77" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C77" t="n">
         <v>3.261</v>
       </c>
       <c r="D77" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="E77" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="F77" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G77" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="H77" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>176</v>
+      </c>
+      <c r="I77" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="B78" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="C78" t="n">
         <v>3.857</v>
       </c>
       <c r="D78" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E78" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F78" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="G78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="B79" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C79" t="n">
         <v>3.286</v>
       </c>
       <c r="D79" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="E79" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="F79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G79" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="H79" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I79" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="B80" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C80" t="n">
         <v>3.867</v>
       </c>
       <c r="D80" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="E80" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="F80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I80" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="B81" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="C81" t="n">
         <v>3.1715</v>
       </c>
       <c r="D81" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="E81" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F81" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H81" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="B82" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C82" t="n">
         <v>3.6285</v>
       </c>
       <c r="D82" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="E82" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="F82" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="G82" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="H82" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I82" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="B83" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C83" t="n">
         <v>3.333</v>
       </c>
       <c r="D83" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E83" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="G83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>192</v>
+      </c>
+      <c r="I83" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="B84" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="C84" t="n">
         <v>3.452</v>
       </c>
       <c r="D84" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="E84" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="F84" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="G84" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="H84" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I84" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="B85" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="C85" t="n">
         <v>3.8435</v>
       </c>
       <c r="D85" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="E85" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="F85" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="G85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>201</v>
+      </c>
+      <c r="I85" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="B86" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="C86" t="n">
         <v>3.923</v>
       </c>
       <c r="D86" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="E86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F86" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="G86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I86" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="B89" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C89" t="n">
         <v>3.3915</v>
       </c>
       <c r="D89" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="E89" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="F89" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="G89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>210</v>
+      </c>
+      <c r="I89" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="B90" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="C90" t="n">
         <v>3.1387</v>
       </c>
       <c r="D90" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="E90" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="F90" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="G90" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="H90" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>216</v>
+      </c>
+      <c r="I90" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="B91" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="C91" t="n">
         <v>3.15</v>
       </c>
       <c r="D91" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E91" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="F91" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I91" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="B92" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C92" t="n">
         <v>2.875</v>
       </c>
       <c r="D92" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E92" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="F92" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="G92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I92" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="B93" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C93" t="n">
         <v>3.84</v>
       </c>
       <c r="D93" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E93" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="F93" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="G93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H93" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I93" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="B94" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C94" t="n">
         <v>2.773</v>
       </c>
       <c r="D94" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="E94" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="F94" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="G94" t="s">
-        <v>217</v>
+        <v>114</v>
       </c>
       <c r="H94" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I94" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="B95" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C95" t="n">
         <v>3.75</v>
       </c>
       <c r="D95" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="E95" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="F95" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I95" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="B96" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="C96" t="n">
         <v>3.125</v>
       </c>
       <c r="D96" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="E96" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="F96" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H96" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>233</v>
+      </c>
+      <c r="I96" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="B97" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C97" t="n">
         <v>3.0955</v>
       </c>
       <c r="D97" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E97" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="F97" t="s">
+        <v>113</v>
+      </c>
+      <c r="G97" t="s">
+        <v>236</v>
+      </c>
+      <c r="H97" t="s">
+        <v>14</v>
+      </c>
+      <c r="I97" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="B100" t="s">
         <v>107</v>
-      </c>
-      <c r="G97" t="s">
-        <v>228</v>
-      </c>
-      <c r="H97" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="B100" t="s">
-        <v>101</v>
       </c>
       <c r="C100" t="n">
         <v>3.911</v>
       </c>
       <c r="D100" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="E100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>231</v>
+        <v>239</v>
+      </c>
+      <c r="I100" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
